--- a/BUS 6.xlsx
+++ b/BUS 6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Git Repo/Simple-System-for-Power-System-Reliability-Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="633" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91218960-B3DA-423D-83F4-252DBFB4D7C6}"/>
+  <xr:revisionPtr revIDLastSave="639" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{778911C5-BE69-4EAB-BA34-551D908B51D2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus Data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="202">
   <si>
     <t>Length</t>
   </si>
@@ -633,9 +633,6 @@
   </si>
   <si>
     <t>End 2</t>
-  </si>
-  <si>
-    <t>BB</t>
   </si>
   <si>
     <t>BS</t>
@@ -645,7 +642,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,14 +652,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -688,9 +677,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A82"/>
+  <dimension ref="A2:A81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,11 +1369,6 @@
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1396,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF92492-FF57-4DEA-AB68-FD245D37EAFE}">
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,7 +2385,7 @@
         <v>184</v>
       </c>
       <c r="F37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G37" t="s">
         <v>191</v>
@@ -2512,7 +2495,7 @@
         <v>184</v>
       </c>
       <c r="F41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
@@ -2567,7 +2550,7 @@
         <v>184</v>
       </c>
       <c r="F43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
@@ -2622,7 +2605,7 @@
         <v>184</v>
       </c>
       <c r="F45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
@@ -2677,7 +2660,7 @@
         <v>184</v>
       </c>
       <c r="F47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
@@ -2715,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -2732,7 +2715,7 @@
         <v>184</v>
       </c>
       <c r="F49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
@@ -2744,7 +2727,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -2770,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -2787,7 +2770,7 @@
         <v>184</v>
       </c>
       <c r="F51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
@@ -2799,7 +2782,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -2825,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2842,7 +2825,7 @@
         <v>184</v>
       </c>
       <c r="F53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
@@ -2854,7 +2837,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2880,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2897,7 +2880,7 @@
         <v>184</v>
       </c>
       <c r="F55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
@@ -2909,7 +2892,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -2934,9 +2917,8 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -2962,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -2979,7 +2961,7 @@
         <v>184</v>
       </c>
       <c r="F58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
@@ -2991,7 +2973,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -3017,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -3034,7 +3016,7 @@
         <v>184</v>
       </c>
       <c r="F60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
@@ -3046,7 +3028,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -3063,7 +3045,7 @@
         <v>184</v>
       </c>
       <c r="F61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
@@ -3075,7 +3057,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -3101,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>115</v>
       </c>
@@ -3118,7 +3100,7 @@
         <v>184</v>
       </c>
       <c r="F63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G63" t="s">
         <v>191</v>
@@ -3130,7 +3112,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -3173,7 +3155,7 @@
         <v>184</v>
       </c>
       <c r="F65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G65" t="s">
         <v>191</v>
@@ -3228,7 +3210,7 @@
         <v>184</v>
       </c>
       <c r="F67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G67" t="s">
         <v>191</v>
@@ -3283,7 +3265,7 @@
         <v>184</v>
       </c>
       <c r="F69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G69" t="s">
         <v>191</v>
@@ -3312,7 +3294,7 @@
         <v>184</v>
       </c>
       <c r="F70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G70" t="s">
         <v>191</v>
@@ -3367,7 +3349,7 @@
         <v>184</v>
       </c>
       <c r="F72" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G72" t="s">
         <v>191</v>
@@ -3422,7 +3404,7 @@
         <v>184</v>
       </c>
       <c r="F74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G74" t="s">
         <v>191</v>
@@ -3477,7 +3459,7 @@
         <v>184</v>
       </c>
       <c r="F76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G76" t="s">
         <v>191</v>
@@ -3532,7 +3514,7 @@
         <v>184</v>
       </c>
       <c r="F78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G78" t="s">
         <v>191</v>
@@ -3561,7 +3543,7 @@
         <v>184</v>
       </c>
       <c r="F79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G79" t="s">
         <v>191</v>
@@ -4320,10 +4302,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED67224-03B9-40FD-B1AD-A7F984B7BC68}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4350,20 +4332,6 @@
         <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4376,7 +4344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CF8A08-E438-4FEE-A1E6-85A5578A69B5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -4395,7 +4363,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
